--- a/biology/Médecine/Pharmacie_centrale_de_Guinée/Pharmacie_centrale_de_Guinée.xlsx
+++ b/biology/Médecine/Pharmacie_centrale_de_Guinée/Pharmacie_centrale_de_Guinée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pharmacie_centrale_de_Guin%C3%A9e</t>
+          <t>Pharmacie_centrale_de_Guinée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Pharmacie centrale de Guinée ou PCG est une entreprise publique guinéenne active dans le domaine de la santé et ayant pour activité l'importation et la commercialisation de produits pharmaceutiques[2].
+La Pharmacie centrale de Guinée ou PCG est une entreprise publique guinéenne active dans le domaine de la santé et ayant pour activité l'importation et la commercialisation de produits pharmaceutiques.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pharmacie_centrale_de_Guin%C3%A9e</t>
+          <t>Pharmacie_centrale_de_Guinée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Durant la période coloniale, l'administration coloniale crée la filiale de pharmapro de l’AOF chargée des préparations galéniques et de l’approvisionnement de certains hôpitaux en produits pharmaceutiques de spécialités et en matériels médicaux qui sera basée à Mamou et représentée dans 8 préfectures dont Boké, Conakry, Fria, Labé, Mamou, Kankan Nzérekoré et Kissidougou en 1939. Avec un effectif de 22 travailleurs dont deux pharmaciens africains et un pharmacien européen militaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la période coloniale, l'administration coloniale crée la filiale de pharmapro de l’AOF chargée des préparations galéniques et de l’approvisionnement de certains hôpitaux en produits pharmaceutiques de spécialités et en matériels médicaux qui sera basée à Mamou et représentée dans 8 préfectures dont Boké, Conakry, Fria, Labé, Mamou, Kankan Nzérekoré et Kissidougou en 1939. Avec un effectif de 22 travailleurs dont deux pharmaciens africains et un pharmacien européen militaire.
 Après l'accession de la Guinée à l'indépendance, la première république met en place en 1960 la pharmaguinée à Conakry, une entreprise nationale avec les statuts d’établissement public à caractère administratif (EPA). 
 À la création de la coordination financière du commerce (COFICOM) et le service de commercialisation (SERCOM), la pharmaguinée cède ses dépôts régionaux à celle-ci et maintient sa monopole d'importation jusqu’en 1984.
-Par décret D/92/133/PRG/SGG du 17 décembre 1992, l'État crée la pharmacie centrale de Guinée avec le statut établissement public à caractère industriel et commercial (EPIC). En 2020, la création de la société publique la pharmacie centrale de Guinée (PCG-SA) par décret D/2020/108/PRG/SGG du 11 juin 2020[3],[4].
-Historique des directeurs généraux</t>
+Par décret D/92/133/PRG/SGG du 17 décembre 1992, l'État crée la pharmacie centrale de Guinée avec le statut établissement public à caractère industriel et commercial (EPIC). En 2020, la création de la société publique la pharmacie centrale de Guinée (PCG-SA) par décret D/2020/108/PRG/SGG du 11 juin 2020,.
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pharmacie_centrale_de_Guin%C3%A9e</t>
+          <t>Pharmacie_centrale_de_Guinée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La distribution des médicaments est assurée principalement par la Pharmacie centrale de Guinée et un réseau de grossistes répartiteurs privés couvrant toutes les régions du pays.
-La PCG fait partir des rares établissements autorisés à importer les médicaments et les vaccins, agissant en tant que centrale d'achat nationale pour couvrir l’ensemble des besoins du pays. Cette entreprise publique permet d'assurer la maîtrise des coûts, l'uniformité et le contrôle des prix, la régularité de l'approvisionnement du pays et l'appui aux programmes de santé par le biais du mécanisme de l'auto-compensation dont le principe est de majorer les prix des médicaments non indispensables et d'utiliser ces profits pour compenser les médicaments utilisés dans les programmes de santé[6].
+La PCG fait partir des rares établissements autorisés à importer les médicaments et les vaccins, agissant en tant que centrale d'achat nationale pour couvrir l’ensemble des besoins du pays. Cette entreprise publique permet d'assurer la maîtrise des coûts, l'uniformité et le contrôle des prix, la régularité de l'approvisionnement du pays et l'appui aux programmes de santé par le biais du mécanisme de l'auto-compensation dont le principe est de majorer les prix des médicaments non indispensables et d'utiliser ces profits pour compenser les médicaments utilisés dans les programmes de santé.
 </t>
         </is>
       </c>
